--- a/meta/program/BlancoMeta2XmlMeta2Xml.xlsx
+++ b/meta/program/BlancoMeta2XmlMeta2Xml.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="8190" tabRatio="640"/>
+    <workbookView xWindow="-25600" yWindow="-5120" windowWidth="25600" windowHeight="20020" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="meta2xml" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,16 @@
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>クラス名</t>
   </si>
@@ -184,13 +189,27 @@
   </si>
   <si>
     <t>.xlsx</t>
+  </si>
+  <si>
+    <t>除外すべきファイルの正規表現</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~$</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -212,6 +231,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -329,8 +364,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -350,8 +389,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,26 +685,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="23">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -794,6 +839,15 @@
         <v>21</v>
       </c>
       <c r="D15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -804,9 +858,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
-  <pageSetup paperSize="9" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D &amp;T</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>